--- a/nid/output.xlsx
+++ b/nid/output.xlsx
@@ -481,15 +481,11 @@
           <t>0616215896943.pdf</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>9128174795</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>19800616215896943</t>
-        </is>
+      <c r="B2" t="n">
+        <v>9128174795</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.980061621589694e+16</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -519,15 +515,11 @@
           <t>0616971732105.pdf</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1024022541</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>19430616971732105</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1024022541</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.94306169717321e+16</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -557,15 +549,11 @@
           <t>1928474533.pdf</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1928474533</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>19488926705464917</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1928474533</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.948892670546492e+16</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -595,15 +583,11 @@
           <t>19426710477968110.pdf</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1949484560</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>19426710477968110</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1949484560</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.942671047796811e+16</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -633,15 +617,11 @@
           <t>19476710647209320.pdf</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>8701230420</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>19476710647209320</t>
-        </is>
+      <c r="B6" t="n">
+        <v>8701230420</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.947671064720932e+16</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -671,15 +651,11 @@
           <t>19603025105814175.pdf</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3704956972</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>19603025105814175</t>
-        </is>
+      <c r="B7" t="n">
+        <v>3704956972</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.960302510581418e+16</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -709,15 +685,11 @@
           <t>19834819281791835.pdf</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>8668325841</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>19834819281791835</t>
-        </is>
+      <c r="B8" t="n">
+        <v>8668325841</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.983481928179184e+16</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -747,15 +719,11 @@
           <t>2219047531401.pdf</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7339730603</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>19452219047531401</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7339730603</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.94522190475314e+16</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -785,15 +753,11 @@
           <t>2823840018.pdf</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2823840018</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>19734814994114650</t>
-        </is>
+      <c r="B10" t="n">
+        <v>2823840018</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.973481499411465e+16</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -823,15 +787,11 @@
           <t>2862699077.pdf</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2862699077</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>19812613869000279</t>
-        </is>
+      <c r="B11" t="n">
+        <v>2862699077</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.981261386900028e+16</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -843,10 +803,8 @@
           <t>SHILPI AKTER</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>19812613869262736</t>
-        </is>
+      <c r="F11" t="n">
+        <v>1.981261386926274e+16</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -865,15 +823,11 @@
           <t>3612647980793.pdf</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6879664529</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>19623612647980793</t>
-        </is>
+      <c r="B12" t="n">
+        <v>6879664529</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.962361264798079e+16</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -903,15 +857,11 @@
           <t>3612647982381.pdf</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3729499131</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>19493612647982381</t>
-        </is>
+      <c r="B13" t="n">
+        <v>3729499131</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.949361264798238e+16</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -941,15 +891,11 @@
           <t>4645610520.pdf</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4645610520</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>19624812727419301</t>
-        </is>
+      <c r="B14" t="n">
+        <v>4645610520</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.96248127274193e+16</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -979,15 +925,11 @@
           <t>5507470986.pdf</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5507470986</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>19843212135190372</t>
-        </is>
+      <c r="B15" t="n">
+        <v>5507470986</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.984321213519037e+16</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1017,15 +959,11 @@
           <t>5523415817.pdf</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5523415817</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>19734814994114628</t>
-        </is>
+      <c r="B16" t="n">
+        <v>5523415817</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.973481499411463e+16</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1055,15 +993,11 @@
           <t>6414727804446.pdf</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1910793080</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>19756414727804446</t>
-        </is>
+      <c r="B17" t="n">
+        <v>1910793080</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.975641472780445e+16</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1093,15 +1027,11 @@
           <t>6414727804536.pdf</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>6412200732</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>19706414727804536</t>
-        </is>
+      <c r="B18" t="n">
+        <v>6412200732</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.970641472780454e+16</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1131,15 +1061,11 @@
           <t>7311276130745.pdf</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>8668726204</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>19807311276130745</t>
-        </is>
+      <c r="B19" t="n">
+        <v>8668726204</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.980731127613074e+16</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1169,15 +1095,11 @@
           <t>8673097559.pdf</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>8673097559</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>19684814994114624</t>
-        </is>
+      <c r="B20" t="n">
+        <v>8673097559</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.968481499411462e+16</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1207,15 +1129,11 @@
           <t>8676847174.pdf</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>8676847174</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>19679318567830394</t>
-        </is>
+      <c r="B21" t="n">
+        <v>8676847174</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.967931856783039e+16</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1245,15 +1163,11 @@
           <t>NIDFN158014505.pdf</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1049292301</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>19671913161000075</t>
-        </is>
+      <c r="B22" t="n">
+        <v>1049292301</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.967191316100008e+16</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1265,10 +1179,8 @@
           <t>MD ABUL HASHEM</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>19671913161022497</t>
-        </is>
+      <c r="F22" t="n">
+        <v>1.96719131610225e+16</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>

--- a/nid/output.xlsx
+++ b/nid/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,716 +478,1518 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0616215896943.pdf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9128174795</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.980061621589694e+16</v>
+          <t>0319519180059.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8672965160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>19750319519180059</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1980-05-07</t>
+          <t>1975-10-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mst. Khenur</t>
+          <t>Rane Run Tripura</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0616215896943_1.jpeg</t>
+          <t>0319519180059_1.jpeg</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0616215896943_2.jpeg</t>
+          <t>0319519180059_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0616971732105.pdf</t>
+          <t>0616215896943.pdf</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1024022541</v>
+        <v>9128174795</v>
       </c>
       <c r="C3" t="n">
-        <v>1.94306169717321e+16</v>
+        <v>1.980061621589694e+16</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1943-05-05</t>
+          <t>1980-05-07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ranu</t>
+          <t>Mst. Khenur</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0616971732105_1.jpeg</t>
+          <t>0616215896943_1.jpeg</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0616971732105_2.jpeg</t>
+          <t>0616215896943_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1928474533.pdf</t>
+          <t>0616971732105.pdf</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1928474533</v>
+        <v>1024022541</v>
       </c>
       <c r="C4" t="n">
-        <v>1.948892670546492e+16</v>
+        <v>1.94306169717321e+16</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1943-05-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AFSOR ALI</t>
+          <t>Ranu</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1928474533_1.jpeg</t>
+          <t>0616971732105_1.jpeg</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1928474533_2.jpeg</t>
+          <t>0616971732105_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19426710477968110.pdf</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1949484560</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.942671047796811e+16</v>
+          <t>1000897163.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1000897163</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19839316634043021</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1942-12-10</t>
+          <t>1983-09-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hossan Banu</t>
+          <t>SOBUJ MIAH</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19426710477968110_1.jpeg</t>
+          <t>1000897163_1.jpeg</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>19426710477968110_2.jpeg</t>
+          <t>1000897163_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19476710647209320.pdf</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8701230420</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.947671064720932e+16</v>
+          <t>1002478525.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19581923302292307</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1947-05-01</t>
+          <t>1958-08-05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bidu Voshon Mandal</t>
+          <t>Rabeya Begum</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19476710647209320_1.jpeg</t>
+          <t>1002478525_1.jpeg</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>19476710647209320_2.jpeg</t>
+          <t>1002478525_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19603025105814175.pdf</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3704956972</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.960302510581418e+16</v>
+          <t>1471416659.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1471416659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19727615534356016</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1960-02-01</t>
+          <t>1972-11-01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JUBADA KHATUN</t>
+          <t>Mst Shahaton</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19603025105814175_1.jpeg</t>
+          <t>1471416659_1.jpeg</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19603025105814175_2.jpeg</t>
+          <t>1471416659_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19834819281791835.pdf</t>
+          <t>1928474533.pdf</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8668325841</v>
+        <v>1928474533</v>
       </c>
       <c r="C8" t="n">
-        <v>1.983481928179184e+16</v>
+        <v>1.948892670546492e+16</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1983-08-03</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MST. REHENA KHATUN</t>
+          <t>AFSOR ALI</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19834819281791835_1.jpeg</t>
+          <t>1928474533_1.jpeg</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>19834819281791835_2.jpeg</t>
+          <t>1928474533_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2219047531401.pdf</t>
+          <t>19426710477968110.pdf</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7339730603</v>
+        <v>1949484560</v>
       </c>
       <c r="C9" t="n">
-        <v>1.94522190475314e+16</v>
+        <v>1.942671047796811e+16</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1945-08-10</t>
+          <t>1942-12-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kala Mia</t>
+          <t>Hossan Banu</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2219047531401_1.jpeg</t>
+          <t>19426710477968110_1.jpeg</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2219047531401_2.jpeg</t>
+          <t>19426710477968110_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2823840018.pdf</t>
+          <t>19476710647209320.pdf</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2823840018</v>
+        <v>8701230420</v>
       </c>
       <c r="C10" t="n">
-        <v>1.973481499411465e+16</v>
+        <v>1.947671064720932e+16</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1973-04-25</t>
+          <t>1947-05-01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MST. KOKILA BABUM</t>
+          <t>Bidu Voshon Mandal</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2823840018_1.jpeg</t>
+          <t>19476710647209320_1.jpeg</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2823840018_2.jpeg</t>
+          <t>19476710647209320_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2862699077.pdf</t>
+          <t>19603025105814175.pdf</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2862699077</v>
+        <v>3704956972</v>
       </c>
       <c r="C11" t="n">
-        <v>1.981261386900028e+16</v>
+        <v>1.960302510581418e+16</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1981-02-02</t>
+          <t>1960-02-01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SHILPI AKTER</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.981261386926274e+16</v>
-      </c>
+          <t>JUBADA KHATUN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2862699077_1.jpeg</t>
+          <t>19603025105814175_1.jpeg</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2862699077_2.png</t>
+          <t>19603025105814175_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3612647980793.pdf</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6879664529</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.962361264798079e+16</v>
+          <t>19682229007596700.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>19682229007596700</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1962-03-07</t>
+          <t>1968-04-27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>USTAR MIA</t>
+          <t>Abul Hashem</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3612647980793_1.jpeg</t>
+          <t>19682229007596700_1.jpeg</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3612647980793_2.jpeg</t>
+          <t>19682229007596700_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3612647982381.pdf</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3729499131</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.949361264798238e+16</v>
+          <t>19686112494301485.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19686112494301485</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1949-06-02</t>
+          <t>1968-01-05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NUR JAHAN</t>
+          <t>MST. ZAMILA KHATUN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3612647982381_1.jpeg</t>
+          <t>19686112494301485_1.jpeg</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3612647982381_2.jpeg</t>
+          <t>19686112494301485_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4645610520.pdf</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4645610520</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.96248127274193e+16</v>
+          <t>19702699038985026.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5529418799</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>19702699038985026</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1962-02-19</t>
+          <t>1970-08-05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAJIA KHATUN</t>
+          <t>Anowara Begum</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4645610520_1.jpeg</t>
+          <t>19702699038985026_1.jpeg</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4645610520_2.jpeg</t>
+          <t>19702699038985026_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5507470986.pdf</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5507470986</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.984321213519037e+16</v>
+          <t>19747528305408148.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4622549816</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>19747528305408148</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1984-07-08</t>
+          <t>1974-08-11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mst Chaina Begum</t>
+          <t>Anowara Begum</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5507470986_1.jpeg</t>
+          <t>19747528305408148_1.jpeg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5507470986_2.jpeg</t>
+          <t>19747528305408148_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5523415817.pdf</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5523415817</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.973481499411463e+16</v>
+          <t>19758718663059427.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5952525318</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>19758718663059427</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1973-10-08</t>
+          <t>1975-05-11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MD. HELAL UDDIN</t>
+          <t>Md. Younus Ali Gazi</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5523415817_1.jpeg</t>
+          <t>19758718663059427_1.jpeg</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5523415817_2.jpeg</t>
+          <t>19758718663059427_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6414727804446.pdf</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1910793080</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.975641472780445e+16</v>
+          <t>19771211393635854.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1498398526</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>19771211393635854</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1975-04-12</t>
+          <t>1977-04-19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mst. Samena Bibi</t>
+          <t>Mijan Miah</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6414727804446_1.jpeg</t>
+          <t>19771211393635854_1.jpeg</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6414727804446_2.jpeg</t>
+          <t>19771211393635854_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6414727804536.pdf</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6412200732</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.970641472780454e+16</v>
+          <t>19802611813600574.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6900156818</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>19802611813600574</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1970-10-22</t>
+          <t>1980-07-17</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mst. Majeda Begum</t>
+          <t>Rasheda begum</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6414727804536_1.jpeg</t>
+          <t>19802611813600574_1.jpeg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6414727804536_2.jpeg</t>
+          <t>19802611813600574_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7311276130745.pdf</t>
+          <t>19834819281791835.pdf</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8668726204</v>
+        <v>8668325841</v>
       </c>
       <c r="C19" t="n">
-        <v>1.980731127613074e+16</v>
+        <v>1.983481928179184e+16</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1980-05-03</t>
+          <t>1983-08-03</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Md Delwar Hossin</t>
+          <t>MST. REHENA KHATUN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7311276130745_1.jpeg</t>
+          <t>19834819281791835_1.jpeg</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7311276130745_2.jpeg</t>
+          <t>19834819281791835_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8673097559.pdf</t>
+          <t>2219047531401.pdf</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8673097559</v>
+        <v>7339730603</v>
       </c>
       <c r="C20" t="n">
-        <v>1.968481499411462e+16</v>
+        <v>1.94522190475314e+16</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1968-11-10</t>
+          <t>1945-08-10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MD. TAZUR RAHMAN</t>
+          <t>Kala Mia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8673097559_1.jpeg</t>
+          <t>2219047531401_1.jpeg</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>8673097559_2.jpeg</t>
+          <t>2219047531401_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8676847174.pdf</t>
+          <t>2823840018.pdf</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8676847174</v>
+        <v>2823840018</v>
       </c>
       <c r="C21" t="n">
-        <v>1.967931856783039e+16</v>
+        <v>1.973481499411465e+16</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1967-01-20</t>
+          <t>1973-04-25</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MD. HAJART ALI</t>
+          <t>MST. KOKILA BABUM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8676847174_1.jpeg</t>
+          <t>2823840018_1.jpeg</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8676847174_2.jpeg</t>
+          <t>2823840018_2.jpeg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>2824498162.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>19379318513848867</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1937-10-09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NURUL ISLAM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2824498162_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2824498162_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2862699077.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2862699077</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.981261386900028e+16</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1981-02-02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SHILPI AKTER</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.981261386926274e+16</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2862699077_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2862699077_2.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3273253710.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3273253710</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>19677316412390601</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1967-07-05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Mst Nurnahar Begum</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3273253710_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3273253710_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3612647980793.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6879664529</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.962361264798079e+16</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1962-03-07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>USTAR MIA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3612647980793_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3612647980793_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3612647982381.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3729499131</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.949361264798238e+16</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1949-06-02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NUR JAHAN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3612647982381_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>3612647982381_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3911587861958.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3297261210</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19733911587861958</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1973-12-03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Mst</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3911587861958_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>3911587861958_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4645610520.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4645610520</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.96248127274193e+16</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1962-02-19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>RAJIA KHATUN</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4645610520_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>4645610520_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>5507470986.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5507470986</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.984321213519037e+16</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1984-07-08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Mst Chaina Begum</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5507470986_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>5507470986_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5523415817.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5523415817</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.973481499411463e+16</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1973-10-08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MD. HELAL UDDIN</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>5523415817_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>5523415817_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>5912421147448.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>19825912421147448</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1982-10-05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Mazeda Begum</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5912421147448_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5912421147448_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6414727804446.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1910793080</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.975641472780445e+16</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1975-04-12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Mst. Samena Bibi</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>6414727804446_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>6414727804446_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6414727804536.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6412200732</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.970641472780454e+16</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1970-10-22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Mst. Majeda Begum</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>6414727804536_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>6414727804536_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7311276130745.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8668726204</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.980731127613074e+16</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1980-05-03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Md Delwar Hossin</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>7311276130745_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>7311276130745_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7518373455699.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>7324367064</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>19837518373455699</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1983-07-08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Marjahan Akter</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>7518373455699_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>7518373455699_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>8204006418.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>8204006418</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>19693611144281273</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1969-03-12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MST. SHARUFA KHATUN</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>8204006418_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>8204006418_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>8673097559.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8673097559</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.968481499411462e+16</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1968-11-10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MD. TAZUR RAHMAN</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>8673097559_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>8673097559_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>8676847174.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8676847174</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.967931856783039e+16</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1967-01-20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MD. HAJART ALI</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>8676847174_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>8676847174_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>8916738475394.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3279064731</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19678916738475394</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1967-05-04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>RAGIA BEGUM</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>8916738475394_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>8916738475394_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>9101889534.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>19872222406513051</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1987-10-12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Hasina Begum</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>9101889534_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>9101889534_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>9115985099086.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4650905047</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>19899115985099086</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1989-02-01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>HASNA BEGUM</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>9115985099086_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>9115985099086_2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NIDFN155059390.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9597366104</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>19950915466000607</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1995-09-18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RASAL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>19950912138104012</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NIDFN155059390_1.jpeg</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NIDFN155059390_2.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>NIDFN158014505.pdf</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B43" t="n">
         <v>1049292301</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C43" t="n">
         <v>1.967191316100008e+16</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>1967-04-02</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>MD ABUL HASHEM</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="F43" t="n">
         <v>1.96719131610225e+16</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>NIDFN158014505_1.jpeg</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>NIDFN158014505_2.png</t>
         </is>
